--- a/biology/Médecine/1490_en_santé_et_médecine/1490_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1490_en_santé_et_médecine/1490_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1490_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1490_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1490 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1490_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1490_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Construction, à Padoue, du premier amphithéâtre anatomique[1].
-La faculté de médecine de Montpellier institue « des cours pour les garçons des barbiers chirurgiens[2] ».
-Un hôpital Saint-Saturnin ou du Saint-Esprit, destiné aux enfants trouvés, est attesté à Orange[3],[4].
-Un hôtel-Dieu est attesté à Lihout, près de Vaucourtois en Île-de-France[5].
-Fondation d'un hôpital à Mortagne en Flandre par Guillaume de Thouars, échanson de Louis XI[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Construction, à Padoue, du premier amphithéâtre anatomique.
+La faculté de médecine de Montpellier institue « des cours pour les garçons des barbiers chirurgiens ».
+Un hôpital Saint-Saturnin ou du Saint-Esprit, destiné aux enfants trouvés, est attesté à Orange,.
+Un hôtel-Dieu est attesté à Lihout, près de Vaucourtois en Île-de-France.
+Fondation d'un hôpital à Mortagne en Flandre par Guillaume de Thouars, échanson de Louis XI.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1490_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1490_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,19 @@
           <t>Publications (seulement les éditions princeps)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12 février : Chirurgie de Lanfranc de Milan (1245-1306), traduction française  par Guillaume Yvoire, à Lyon, chez Jehan de La Fontayne[7],[8].
-19 mai : Practica de Valesco de Tarente (es) (fl. 1382-1418), clerc et médecin portugais, professeur à Bordeaux, à Lyon, chez Trechsel[9].
-Chirurgia magna de Guy de Chauliac (1298-1368), édition latine[10] imprimée à Venise[11],[12].
-Kitab al-Tayssir d'Avenzoar (1091-1162), traduction latine sous le titre de Rectificatio medicationis et regiminis, à Venise[13].
-Œuvres de Galien, traduction latine, édition de Diomède Bonardus (fl. XVe s.), à Venise, chez Filippo Pinzi[14],[15].
-Viridarium d'Étienne Arlandi (fl. première moitié du XIVe siècle), à Barcelone, chez Pedro Posa[16].
-Anothomia de Jérôme Manfredi (1430-1493), recueil en italien d’abrégés d'auteurs anciens et modernes (Aristote, Avicenne, Mondino[17],[18]).
-Chirurgia[19] de Leonardo Bertapaglia (1380-1463), à Venise[20].
-Philosophia pauperum d'Albert le Grand (c.1200-1280), à Brescia, chez Battista de Farfengo[21].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 février : Chirurgie de Lanfranc de Milan (1245-1306), traduction française  par Guillaume Yvoire, à Lyon, chez Jehan de La Fontayne,.
+19 mai : Practica de Valesco de Tarente (es) (fl. 1382-1418), clerc et médecin portugais, professeur à Bordeaux, à Lyon, chez Trechsel.
+Chirurgia magna de Guy de Chauliac (1298-1368), édition latine imprimée à Venise,.
+Kitab al-Tayssir d'Avenzoar (1091-1162), traduction latine sous le titre de Rectificatio medicationis et regiminis, à Venise.
+Œuvres de Galien, traduction latine, édition de Diomède Bonardus (fl. XVe s.), à Venise, chez Filippo Pinzi,.
+Viridarium d'Étienne Arlandi (fl. première moitié du XIVe siècle), à Barcelone, chez Pedro Posa.
+Anothomia de Jérôme Manfredi (1430-1493), recueil en italien d’abrégés d'auteurs anciens et modernes (Aristote, Avicenne, Mondino,).
+Chirurgia de Leonardo Bertapaglia (1380-1463), à Venise.
+Philosophia pauperum d'Albert le Grand (c.1200-1280), à Brescia, chez Battista de Farfengo.</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1490_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1490_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1486 ou 1490 : Francysk Skaryna (mort en 1540 ou 1551), traducteur, imprimeur, botaniste et médecin biélorusse, reçu docteur à Padoue,  médecin de l'évêque de Vilnius et, selon certains, de l'empereur Ferdinand Ier[22].
-Vers 1490 : Pierre Aréoud (mort vers 1571), médecin et humaniste dauphinois[23].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1486 ou 1490 : Francysk Skaryna (mort en 1540 ou 1551), traducteur, imprimeur, botaniste et médecin biélorusse, reçu docteur à Padoue,  médecin de l'évêque de Vilnius et, selon certains, de l'empereur Ferdinand Ier.
+Vers 1490 : Pierre Aréoud (mort vers 1571), médecin et humaniste dauphinois.</t>
         </is>
       </c>
     </row>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1490_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1490_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26 octobre : Jean Michel Albert Carrara (en) (né en 1438), médecin et humaniste de Bergame en Lombardie, fils du philosophe et médecin Guido Carrara († 1457[24]).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 octobre : Jean Michel Albert Carrara (en) (né en 1438), médecin et humaniste de Bergame en Lombardie, fils du philosophe et médecin Guido Carrara († 1457).</t>
         </is>
       </c>
     </row>
